--- a/biology/Zoologie/Cryptocteniza_kawtak/Cryptocteniza_kawtak.xlsx
+++ b/biology/Zoologie/Cryptocteniza_kawtak/Cryptocteniza_kawtak.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cryptocteniza
-Cryptocteniza kawtak, unique représentant du genre Cryptocteniza, est une espèce d'araignées mygalomorphes de la famille des Euctenizidae[1].
+Cryptocteniza kawtak, unique représentant du genre Cryptocteniza, est une espèce d'araignées mygalomorphes de la famille des Euctenizidae.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Californie aux États-Unis[1],[2]. Elle se rencontre dans le comté de Monterey sur la plage d'État de Moss Landing (en).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Californie aux États-Unis,. Elle se rencontre dans le comté de Monterey sur la plage d'État de Moss Landing (en).
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle holotype mesure 3,29 mm de long sur 3,28 mm et la carapace de la femelle paratype mesure 5,58 mm de long sur 5,23 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle holotype mesure 3,29 mm de long sur 3,28 mm et la carapace de la femelle paratype mesure 5,58 mm de long sur 5,23 mm.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Jason E. Bond, Chris A. Hamilton, Rebecca L. Godwin, Joel M. Ledford et James Starrett, « Phylogeny, Evolution, and Biogeography of the North American Trapdoor Spider Family Euctenizidae (Araneae: Mygalomorphae) and the Discovery of a New ‘Endangered Living Fossil’ Along California’s Central Coast », Insect Systematics and Diversity, OUP, vol. 4, no 5,‎ 1er septembre 2020 (ISSN 2399-3421, DOI 10.1093/ISD/IXAA010, lire en ligne)</t>
         </is>
